--- a/data/trans_dic/P25A$voluntad-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A$voluntad-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4295839514371636</v>
+        <v>0.426246256290323</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5358283988686536</v>
+        <v>0.5300513424276715</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4470935169174448</v>
+        <v>0.4494596870113621</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6238926622222424</v>
+        <v>0.6197626923029804</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6019466868303925</v>
+        <v>0.592644282766264</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4570003297710789</v>
+        <v>0.4585662231922752</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.466193885361611</v>
+        <v>0.4696533282695281</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5564166477546317</v>
+        <v>0.5574425467922334</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4644632034475654</v>
+        <v>0.4710542726818963</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5415813899489694</v>
+        <v>0.5429619694148164</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.639411193407781</v>
+        <v>0.6411221298154866</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5743062818190104</v>
+        <v>0.5764554549086079</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8598866869242632</v>
+        <v>0.8597040556981201</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8195820481574905</v>
+        <v>0.8072456070596746</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7661642414074643</v>
+        <v>0.7661877748843108</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.570124160288072</v>
+        <v>0.5742439223599018</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6572197237654787</v>
+        <v>0.6566398980433794</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5917822391141202</v>
+        <v>0.5904194039863593</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5804002020012796</v>
+        <v>0.5838340848917265</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6887394335688938</v>
+        <v>0.6879161699360117</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5745972678700871</v>
+        <v>0.5756428548178256</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5565448252820117</v>
+        <v>0.5471367498204358</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7206088005634973</v>
+        <v>0.7214950619559202</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5928726335401494</v>
+        <v>0.6008708940163349</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5935041915848631</v>
+        <v>0.597349108775526</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7199257720114036</v>
+        <v>0.7183954948168733</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6071950167620241</v>
+        <v>0.6065629924414757</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7084802962594465</v>
+        <v>0.7101186678656877</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7853108623484422</v>
+        <v>0.7850214474787433</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6903410441136688</v>
+        <v>0.6907894839822178</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7118693155975245</v>
+        <v>0.7114018414498441</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8378852936161204</v>
+        <v>0.8344424812031777</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7329544008236041</v>
+        <v>0.732984087556427</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6913288526179686</v>
+        <v>0.6920052534575563</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7941880253546238</v>
+        <v>0.7937255541182368</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6907739997658547</v>
+        <v>0.6934222826608286</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5798153883147833</v>
+        <v>0.5755470534058016</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6770099199445855</v>
+        <v>0.6711062555019199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5826275341146077</v>
+        <v>0.5760084900033589</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5148127524413471</v>
+        <v>0.5049960244310472</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6877050082801628</v>
+        <v>0.6869603495199605</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6748588932227894</v>
+        <v>0.6784254173897237</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5919372205303125</v>
+        <v>0.5877636128059927</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.711233217562277</v>
+        <v>0.7089789312514398</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6567024161850012</v>
+        <v>0.663183240491633</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.779937572066476</v>
+        <v>0.7864292641650354</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8535640181619432</v>
+        <v>0.84502842475509</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7987779914609408</v>
+        <v>0.7969852886165818</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7764211869640762</v>
+        <v>0.764911717742185</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8693926367651033</v>
+        <v>0.8806761013055824</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8503980939044813</v>
+        <v>0.8456717202742151</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7530812336419301</v>
+        <v>0.7452767627805408</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8396560201667854</v>
+        <v>0.8430504958205952</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7975735465271149</v>
+        <v>0.8012845664619206</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5349144469809471</v>
+        <v>0.5357665101311883</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6412244379207042</v>
+        <v>0.6369732152162566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5582272069793612</v>
+        <v>0.5602840674760071</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5976925364590826</v>
+        <v>0.5994101406951278</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7275233807978522</v>
+        <v>0.7290823096183738</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6461281203460086</v>
+        <v>0.6501190708287049</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5676105368318644</v>
+        <v>0.5664853890876614</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6760217306435646</v>
+        <v>0.6778407519312715</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5995509631086789</v>
+        <v>0.5998137944614876</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6123322106212458</v>
+        <v>0.6164507688180445</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7079513288831764</v>
+        <v>0.7085626661974324</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6404151876150637</v>
+        <v>0.6402810688927552</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7186186299118598</v>
+        <v>0.7199217076099812</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8138878409392467</v>
+        <v>0.8212771711365582</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7449932727655002</v>
+        <v>0.7443022915395447</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.632976930546761</v>
+        <v>0.6312384192065079</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7319285241105475</v>
+        <v>0.7303578141698491</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6655672350317469</v>
+        <v>0.6691227342259674</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>130194</v>
+        <v>129182</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>199366</v>
+        <v>197216</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>93808</v>
+        <v>94304</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30045</v>
+        <v>29847</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>41578</v>
+        <v>40935</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>17197</v>
+        <v>17256</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>163740</v>
+        <v>164955</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>245459</v>
+        <v>245911</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>114930</v>
+        <v>116561</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>164137</v>
+        <v>164555</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>237906</v>
+        <v>238542</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>120499</v>
+        <v>120950</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>41410</v>
+        <v>41402</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>56610</v>
+        <v>55758</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28831</v>
+        <v>28832</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>200244</v>
+        <v>201691</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>289927</v>
+        <v>289671</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>146435</v>
+        <v>146098</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>137591</v>
+        <v>138405</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>239502</v>
+        <v>239216</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>173552</v>
+        <v>173868</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>84158</v>
+        <v>82736</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>173010</v>
+        <v>173223</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>119209</v>
+        <v>120818</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>230446</v>
+        <v>231939</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>423193</v>
+        <v>422293</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>305488</v>
+        <v>305170</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>167954</v>
+        <v>168343</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>273084</v>
+        <v>272983</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>208511</v>
+        <v>208647</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>107646</v>
+        <v>107575</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>201167</v>
+        <v>200340</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>147376</v>
+        <v>147382</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>268429</v>
+        <v>268692</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>466846</v>
+        <v>466574</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>347537</v>
+        <v>348870</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>48957</v>
+        <v>48596</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>65171</v>
+        <v>64603</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>52210</v>
+        <v>51617</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>26441</v>
+        <v>25937</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>53230</v>
+        <v>53173</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>64158</v>
+        <v>64497</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>80383</v>
+        <v>79816</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>123517</v>
+        <v>123126</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>121280</v>
+        <v>122477</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>65854</v>
+        <v>66402</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>82167</v>
+        <v>81345</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>71580</v>
+        <v>71419</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>39878</v>
+        <v>39287</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>67294</v>
+        <v>68167</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>80846</v>
+        <v>80397</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>102265</v>
+        <v>101206</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>145820</v>
+        <v>146409</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>147297</v>
+        <v>147982</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>334090</v>
+        <v>334623</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>523286</v>
+        <v>519817</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>335757</v>
+        <v>336995</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>149862</v>
+        <v>150293</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>281234</v>
+        <v>281836</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>215658</v>
+        <v>216990</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>496831</v>
+        <v>495846</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>813008</v>
+        <v>815196</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>560725</v>
+        <v>560970</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>382443</v>
+        <v>385015</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>577740</v>
+        <v>578239</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>385191</v>
+        <v>385110</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>180183</v>
+        <v>180510</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>314619</v>
+        <v>317475</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>248656</v>
+        <v>248426</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>554047</v>
+        <v>552525</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>880244</v>
+        <v>878355</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>622466</v>
+        <v>625791</v>
       </c>
     </row>
     <row r="20">
